--- a/LdHProject/excel/newExcelfile.xlsx
+++ b/LdHProject/excel/newExcelfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>Naam</t>
   </si>
@@ -32,43 +32,142 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">AD is niet juist                                                                                                                                                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niks                                                                                                                                                                                                                                                           </t>
-  </si>
-  <si>
-    <t>connectie</t>
-  </si>
-  <si>
-    <t>Tue May 22 10:07:03 CEST 2018</t>
-  </si>
-  <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laa001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONBEKEND-PROFIT                                                                                                                                                                                                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ihhs002hhs AD Account, onbekend in Profit                                                                                                                                                                                                                      </t>
+    <t xml:space="preserve">e.v100hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONBEKEND-PROFIT                                   </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-2416:08:28.173</t>
+  </si>
+  <si>
+    <t>2014-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n50101hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
   </si>
   <si>
     <t xml:space="preserve">taa100hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
   </si>
   <si>
-    <t xml:space="preserve">bhhs100hhs AD Account, onbekend in Profit                                                                                                                                                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">taa101hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
   </si>
   <si>
-    <t xml:space="preserve">lab002hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">daa001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+    <t xml:space="preserve">mak002hhs Medewerker uit dienst in Profit , account is in AD actief                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFIT-MISSING                                    </t>
+  </si>
+  <si>
+    <t>Fri Jun 01 11:11:33 CEST 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDS esm005hhs in Profit bestaat niet in de AD                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD-MISSING                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jab001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaa100hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhsb001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaa001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saa100hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lan001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pak002hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sal001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-2415:49:23.657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fad001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaa001hhs AD Account, onbekend in Profit                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-2510:51:44.59</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eab100hhs RDS User naam in Profit bestaat niet in de AD                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba account not in AD                              </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-3110:09:15.407</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laa101hhs RDS User naam in Profit bestaat niet in de AD                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-3112:57:31.987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhsg001hhs RDS User naam in Profit bestaat niet in de AD                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-3112:59:24.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laa100hhs RDS User naam in Profit bestaat niet in de AD                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-3113:14:33.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u3e100hhs RDS User naam in Profit bestaat niet in de AD                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-05-3113:20:06.34</t>
+  </si>
+  <si>
+    <t>pac001hhs RDS User naam in Profit bestaat niet in de AD</t>
+  </si>
+  <si>
+    <t>ba account not in AD</t>
+  </si>
+  <si>
+    <t>AuditBlackBox//localhost:1433,USER,2018-06-0111:10:59.913</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>rab001hhs RDS User naam in Profit bestaat niet in de AD</t>
   </si>
 </sst>
 </file>
@@ -113,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,7 +255,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -167,10 +266,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -179,7 +278,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -190,10 +289,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -202,7 +301,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -213,10 +312,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -225,7 +324,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -236,10 +335,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -248,7 +347,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -262,7 +361,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -271,7 +370,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -282,19 +381,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -305,19 +404,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -328,19 +427,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -351,24 +450,346 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
         <v>5</v>
       </c>
     </row>
